--- a/heuristics_analysis/JustinToAll.xlsx
+++ b/heuristics_analysis/JustinToAll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\gitlab repositories\peerwise-project\heuristics_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC2B9EE-D82D-4E6A-A408-D76FD90C3160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A77E11-5BF5-4DD6-AD1F-4E58BC379537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="-120" windowWidth="27705" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16815" yWindow="1080" windowWidth="11985" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>Nielsen's Heuristics</t>
   </si>
@@ -160,13 +160,7 @@
     <t>Chris</t>
   </si>
   <si>
-    <t>Lack of colours</t>
-  </si>
-  <si>
     <t xml:space="preserve">Persistence </t>
-  </si>
-  <si>
-    <t>Does not make sense to have a search bar in home page with login</t>
   </si>
   <si>
     <t>Searchbar could be for general searching with filters. 
@@ -211,10 +205,77 @@
 Only evidence of help and documentation is message on homepage.</t>
   </si>
   <si>
-    <t>Courses directory could be be less focused on the search results.</t>
-  </si>
-  <si>
-    <t>Navagation directory under header could be bigger and clearer.</t>
+    <t>Issues:</t>
+  </si>
+  <si>
+    <t>Positives</t>
+  </si>
+  <si>
+    <t>Positives:</t>
+  </si>
+  <si>
+    <t>Simple and very clear design.</t>
+  </si>
+  <si>
+    <t>Does not make sense to have a course search bar in home page with login. 
+Maybe the user should login first?</t>
+  </si>
+  <si>
+    <t>Courses directory could be be less focused on the search results. It could be
+better to show a list of courses or recent courses?</t>
+  </si>
+  <si>
+    <t>Consistency flows through all pages, very good.</t>
+  </si>
+  <si>
+    <t>Question page represents social media pages we see daily. Good use of using
+a familiar design.</t>
+  </si>
+  <si>
+    <t>Font sizes are good, very clear.</t>
+  </si>
+  <si>
+    <t>Consistency carries through with the content always centred in the middle of
+the page.</t>
+  </si>
+  <si>
+    <t>Consistency flows through great, fitting the classic IOS theme.</t>
+  </si>
+  <si>
+    <t>Key navagation buttons placed at the bottom for ease and efficency with thumb
+use.</t>
+  </si>
+  <si>
+    <t>Great use of constrast between white and grey backgrounds. Makes it clear
+and easy to look at.</t>
+  </si>
+  <si>
+    <t>Good selection/touch indicators with tick icons.</t>
+  </si>
+  <si>
+    <t>Good use of space and separation. The separation of bottom navagation icons,
+content in the middle, titles and buttons at the top.</t>
+  </si>
+  <si>
+    <t>Consistent colour scheme is great and matches the flow of interaction.</t>
+  </si>
+  <si>
+    <t>Contains lots of comprehensive features to utilise such as quiz generations and 
+a dedicated general questions section/forums.</t>
+  </si>
+  <si>
+    <t>Great use of colours to indicate selection, correctness and indication of
+navagation.</t>
+  </si>
+  <si>
+    <t>Navagation directory path under header could be bigger and clearer.</t>
+  </si>
+  <si>
+    <t>Good use of size and space. Content in the create new question and question
+answering pages are very clear.</t>
+  </si>
+  <si>
+    <t>Design is very simple with good color contrast.</t>
   </si>
 </sst>
 </file>
@@ -325,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +426,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +651,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -766,9 +830,9 @@
   </sheetPr>
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -805,7 +869,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>34</v>
@@ -825,7 +889,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" s="15">
         <v>1</v>
@@ -848,14 +912,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
+      <c r="D3" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="15">
         <v>4</v>
@@ -884,8 +951,8 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>57</v>
+      <c r="D4" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="E4" s="15">
         <v>2</v>
@@ -915,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
@@ -943,7 +1010,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="15">
         <v>1</v>
@@ -970,275 +1037,192 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="15">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
-        <v>4</v>
-      </c>
-      <c r="H8" s="17">
-        <v>4</v>
-      </c>
-      <c r="I8" s="15">
-        <f>AVERAGE(F8:H8)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>4</v>
-      </c>
-      <c r="G9" s="16">
-        <v>4</v>
-      </c>
-      <c r="H9" s="16">
-        <v>4</v>
-      </c>
-      <c r="I9" s="17">
-        <f>AVERAGE(F9:H9)</f>
-        <v>4</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="15">
-        <v>3</v>
-      </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18">
-        <v>2</v>
-      </c>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <f>AVERAGE(F10:H10)</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="15">
-        <v>3</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="18">
-        <v>2</v>
-      </c>
-      <c r="H11" s="17">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <f>AVERAGE(F11:H11)</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19">
-        <v>4</v>
-      </c>
-      <c r="G12" s="18">
-        <v>4</v>
-      </c>
-      <c r="H12" s="17">
-        <v>2</v>
-      </c>
-      <c r="I12" s="15">
-        <f>AVERAGE(F12:H12)</f>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="15"/>
+      <c r="D12" s="25" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="E14" s="15">
+        <v>4</v>
+      </c>
+      <c r="F14" s="19">
         <v>1</v>
       </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="G14" s="18">
         <v>4</v>
       </c>
       <c r="H14" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="15">
         <f>AVERAGE(F14:H14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
       </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="F15" s="16">
         <v>4</v>
       </c>
-      <c r="H15" s="17">
-        <v>1</v>
-      </c>
-      <c r="I15" s="15">
+      <c r="G15" s="16">
+        <v>4</v>
+      </c>
+      <c r="H15" s="16">
+        <v>4</v>
+      </c>
+      <c r="I15" s="17">
         <f>AVERAGE(F15:H15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>3</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="15">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19">
         <v>1</v>
       </c>
-      <c r="F16" s="18">
+      <c r="G16" s="18">
+        <v>2</v>
+      </c>
+      <c r="H16" s="17">
         <v>1</v>
-      </c>
-      <c r="G16" s="18">
-        <v>4</v>
-      </c>
-      <c r="H16" s="17">
-        <v>2</v>
       </c>
       <c r="I16" s="15">
         <f>AVERAGE(F16:H16)</f>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="19">
+        <v>49</v>
+      </c>
+      <c r="E17" s="15">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18">
         <v>2</v>
       </c>
-      <c r="F17" s="18">
-        <v>4</v>
-      </c>
-      <c r="G17" s="18">
-        <v>4</v>
-      </c>
       <c r="H17" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="15">
         <f>AVERAGE(F17:H17)</f>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="15">
         <v>1</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>4</v>
       </c>
       <c r="G18" s="18">
@@ -1252,89 +1236,274 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15">
+        <v>4</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15">
+        <f>AVERAGE(F26:H26)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15">
+        <v>4</v>
+      </c>
+      <c r="H27" s="17">
+        <v>1</v>
+      </c>
+      <c r="I27" s="15">
+        <f>AVERAGE(F27:H27)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18">
+        <v>4</v>
+      </c>
+      <c r="H28" s="17">
+        <v>2</v>
+      </c>
+      <c r="I28" s="15">
+        <f>AVERAGE(F28:H28)</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2</v>
+      </c>
+      <c r="F29" s="18">
+        <v>4</v>
+      </c>
+      <c r="G29" s="18">
+        <v>4</v>
+      </c>
+      <c r="H29" s="17">
+        <v>2</v>
+      </c>
+      <c r="I29" s="15">
+        <f>AVERAGE(F29:H29)</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18">
+        <v>4</v>
+      </c>
+      <c r="G30" s="18">
+        <v>4</v>
+      </c>
+      <c r="H30" s="17">
+        <v>2</v>
+      </c>
+      <c r="I30" s="15">
+        <f>AVERAGE(F30:H30)</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
+    <row r="32" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="5">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="H34" s="17"/>
     </row>
     <row r="35" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="5">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="H35" s="17"/>
     </row>
     <row r="36" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="5">
+        <v>5</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>75</v>
+      </c>
       <c r="H36" s="17"/>
     </row>
     <row r="37" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -6154,7 +6323,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="E9 E2:E5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="E15 E2:E5" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>4</formula2>
     </dataValidation>
@@ -6168,7 +6337,7 @@
           <x14:formula1>
             <xm:f>overview!$A$5:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>C9 C2:C5 B6:B18 B20:B999</xm:sqref>
+          <xm:sqref>C15 C2:C5 B6:B7 B14:B19 B26:B999</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
